--- a/MLdata.xlsx
+++ b/MLdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="0" windowWidth="17720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4940" yWindow="220" windowWidth="17720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,21 +394,40 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2127501752"/>
-        <c:axId val="2127503160"/>
+        <c:axId val="2147060104"/>
+        <c:axId val="2146894840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2127501752"/>
+        <c:axId val="2147060104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Executions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127503160"/>
+        <c:crossAx val="2146894840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -416,18 +435,828 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127503160"/>
+        <c:axId val="2146894840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127501752"/>
+        <c:crossAx val="2147060104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparsion of Machine Learning Techniques at test_size = .75  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.147477431518243"/>
+          <c:y val="0.0425531914893617"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Decision Tree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="50000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.953333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Neural Network</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FD90F7"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.23333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cylinder"/>
+        <c:axId val="2142190888"/>
+        <c:axId val="2141312600"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2142190888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Executions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2141312600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2141312600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2142190888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparsion of Machine Learning Techniques at test_size = .25</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.147477431518243"/>
+          <c:y val="0.0425531914893617"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Decision Tree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="50000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Neural Network</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FD90F7"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SVC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="50000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="37000"/>
+                    <a:satMod val="300000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="15000"/>
+                    <a:satMod val="350000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="38000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="cylinder"/>
+        <c:axId val="2146277272"/>
+        <c:axId val="2139380264"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="2146277272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139380264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139380264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146277272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -476,6 +1305,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -809,7 +1702,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
